--- a/Vietnam_India.xlsx
+++ b/Vietnam_India.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\SPSS-CLASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA17A7F-82EB-4AC4-B166-C7A92CCB4475}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED1DCB1-9FD5-4CBF-84C8-4246450336D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00E5E6B8-443C-43BF-821D-B5A84CA7DE03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="156">
   <si>
     <t>Bristol ID</t>
   </si>
@@ -976,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA4AC8F-7F08-4687-96C0-C70E6E28FFCC}">
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,72 +3657,80 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="8">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S62" s="7" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="F62" s="3">
+        <v>51.837792261370893</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5.2022991358911375</v>
+      </c>
+      <c r="H62" s="3">
+        <v>57.040091397262032</v>
+      </c>
+      <c r="I62" s="3">
+        <f>AVERAGE(H62:H65)</f>
+        <v>28.316810674570132</v>
+      </c>
+      <c r="J62" s="3">
+        <f>_xlfn.STDEV.P(H62:H65)/SQRT(4)</f>
+        <v>10.899407471598508</v>
+      </c>
+      <c r="K62" s="4">
+        <v>37.585259855467243</v>
+      </c>
+      <c r="L62" s="4">
+        <f>AVERAGE(K62:K65)</f>
+        <v>30.575422392503757</v>
+      </c>
+      <c r="M62" s="4">
+        <f>_xlfn.STDEV.P(K62:K65)/SQRT(4)</f>
+        <v>3.3602381109876642</v>
+      </c>
+      <c r="N62" s="5">
+        <v>6.725046886069622</v>
+      </c>
+      <c r="O62" s="5">
+        <f>AVERAGE(N62:N65)</f>
+        <v>4.5304136429901574</v>
+      </c>
+      <c r="P62" s="5">
+        <f>_xlfn.STDEV.P(N62:N65)/SQRT(4)</f>
+        <v>1.1758671649326651</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>76.064102033174294</v>
+      </c>
+      <c r="R62" s="7">
+        <f>AVERAGE(Q62:Q65)</f>
+        <v>46.847804154370728</v>
+      </c>
+      <c r="S62" s="7">
+        <f>_xlfn.STDEV.P(Q62:Q65)/SQRT(4)</f>
+        <v>11.494927908236047</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C63" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>89</v>
@@ -3731,65 +3739,39 @@
         <v>90</v>
       </c>
       <c r="F63" s="3">
-        <v>51.837792261370893</v>
+        <v>2.9562736183134</v>
       </c>
       <c r="G63" s="3">
-        <v>5.2022991358911375</v>
+        <v>1.3028996968862407</v>
       </c>
       <c r="H63" s="3">
-        <v>57.040091397262032</v>
-      </c>
-      <c r="I63" s="3">
-        <f>AVERAGE(H63:H66)</f>
-        <v>28.316810674570132</v>
-      </c>
-      <c r="J63" s="3">
-        <f>_xlfn.STDEV.P(H63:H66)/SQRT(4)</f>
-        <v>10.899407471598508</v>
-      </c>
+        <v>4.2591733151996412</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="4">
-        <v>37.585259855467243</v>
-      </c>
-      <c r="L63" s="4">
-        <f>AVERAGE(K63:K66)</f>
-        <v>30.575422392503757</v>
-      </c>
-      <c r="M63" s="4">
-        <f>_xlfn.STDEV.P(K63:K66)/SQRT(4)</f>
-        <v>3.3602381109876642</v>
-      </c>
+        <v>21.512281370367489</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
       <c r="N63" s="5">
-        <v>6.725046886069622</v>
-      </c>
-      <c r="O63" s="5">
-        <f>AVERAGE(N63:N66)</f>
-        <v>4.5304136429901574</v>
-      </c>
-      <c r="P63" s="5">
-        <f>_xlfn.STDEV.P(N63:N66)/SQRT(4)</f>
-        <v>1.1758671649326651</v>
-      </c>
+        <v>1.2689181393617488</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
       <c r="Q63" s="7">
-        <v>76.064102033174294</v>
-      </c>
-      <c r="R63" s="7">
-        <f>AVERAGE(Q63:Q66)</f>
-        <v>46.847804154370728</v>
-      </c>
-      <c r="S63" s="7">
-        <f>_xlfn.STDEV.P(Q63:Q66)/SQRT(4)</f>
-        <v>11.494927908236047</v>
+        <v>19.886268659613879</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>89</v>
@@ -3797,40 +3779,17 @@
       <c r="E64" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="3">
-        <v>2.9562736183134</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1.3028996968862407</v>
-      </c>
-      <c r="H64" s="3">
-        <v>4.2591733151996412</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="4">
-        <v>21.512281370367489</v>
-      </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="5">
-        <v>1.2689181393617488</v>
-      </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="7">
-        <v>19.886268659613879</v>
-      </c>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>89</v>
@@ -3838,58 +3797,89 @@
       <c r="E65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="F65" s="3">
+        <v>21.638944128893716</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2.0122231823550072</v>
+      </c>
+      <c r="H65" s="3">
+        <v>23.651167311248724</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="4">
+        <v>32.628725951676543</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="5">
+        <v>5.597275903539102</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="7">
+        <v>44.593041770324035</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="8">
-        <v>19</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="A66" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="10">
+        <v>2</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="3">
-        <v>21.638944128893716</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2.0122231823550072</v>
-      </c>
-      <c r="H66" s="3">
-        <v>23.651167311248724</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="4">
-        <v>32.628725951676543</v>
-      </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="5">
-        <v>5.597275903539102</v>
-      </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="7">
-        <v>44.593041770324035</v>
+      <c r="I66" s="3">
+        <f>AVERAGE(H66:H69)</f>
+        <v>74.351542343111021</v>
+      </c>
+      <c r="J66" s="3">
+        <f>_xlfn.STDEV.P(H66:H69)/SQRT(4)</f>
+        <v>2.4038171478805026</v>
+      </c>
+      <c r="L66" s="4">
+        <f>AVERAGE(K66:K69)</f>
+        <v>59.460241790896475</v>
+      </c>
+      <c r="M66" s="4">
+        <f>_xlfn.STDEV.P(K66:K69)/SQRT(4)</f>
+        <v>2.0199774502751051</v>
+      </c>
+      <c r="O66" s="5">
+        <f>AVERAGE(N66:N69)</f>
+        <v>11.283324712906063</v>
+      </c>
+      <c r="P66" s="5">
+        <f>_xlfn.STDEV.P(N66:N69)/SQRT(4)</f>
+        <v>1.058780542047304</v>
+      </c>
+      <c r="R66" s="7">
+        <f>AVERAGE(Q66:Q69)</f>
+        <v>113.62779405994368</v>
+      </c>
+      <c r="S66" s="7">
+        <f>_xlfn.STDEV.P(Q66:Q69)/SQRT(4)</f>
+        <v>2.8477400953156464</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C67" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>89</v>
@@ -3897,48 +3887,40 @@
       <c r="E67" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="3">
-        <f>AVERAGE(H67:H70)</f>
-        <v>74.351542343111021</v>
-      </c>
-      <c r="J67" s="3">
-        <f>_xlfn.STDEV.P(H67:H70)/SQRT(4)</f>
-        <v>2.4038171478805026</v>
-      </c>
-      <c r="L67" s="4">
-        <f>AVERAGE(K67:K70)</f>
-        <v>59.460241790896475</v>
-      </c>
-      <c r="M67" s="4">
-        <f>_xlfn.STDEV.P(K67:K70)/SQRT(4)</f>
-        <v>2.0199774502751051</v>
-      </c>
-      <c r="O67" s="5">
-        <f>AVERAGE(N67:N70)</f>
-        <v>11.283324712906063</v>
-      </c>
-      <c r="P67" s="5">
-        <f>_xlfn.STDEV.P(N67:N70)/SQRT(4)</f>
-        <v>1.058780542047304</v>
-      </c>
-      <c r="R67" s="7">
-        <f>AVERAGE(Q67:Q70)</f>
-        <v>113.62779405994368</v>
-      </c>
-      <c r="S67" s="7">
-        <f>_xlfn.STDEV.P(Q67:Q70)/SQRT(4)</f>
-        <v>2.8477400953156464</v>
+      <c r="F67" s="3">
+        <v>63.096700911120593</v>
+      </c>
+      <c r="G67" s="3">
+        <v>6.4472071362294248</v>
+      </c>
+      <c r="H67" s="3">
+        <v>69.543908047350016</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="4">
+        <v>55.420286890346269</v>
+      </c>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="5">
+        <v>9.1657636288114581</v>
+      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="7">
+        <v>107.9323138693124</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C68" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>89</v>
@@ -3947,39 +3929,39 @@
         <v>90</v>
       </c>
       <c r="F68" s="3">
-        <v>63.096700911120593</v>
+        <v>72.631316818056334</v>
       </c>
       <c r="G68" s="3">
-        <v>6.4472071362294248</v>
+        <v>6.5278598208156851</v>
       </c>
       <c r="H68" s="3">
-        <v>69.543908047350016</v>
+        <v>79.159176638872026</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="4">
-        <v>55.420286890346269</v>
+        <v>63.500196691446689</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5">
-        <v>9.1657636288114581</v>
+        <v>13.400885797000669</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="7">
-        <v>107.9323138693124</v>
+        <v>119.32327425057498</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C69" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>89</v>
@@ -3987,57 +3969,83 @@
       <c r="E69" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="3">
-        <v>72.631316818056334</v>
-      </c>
-      <c r="G69" s="3">
-        <v>6.5278598208156851</v>
-      </c>
-      <c r="H69" s="3">
-        <v>79.159176638872026</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="4">
-        <v>63.500196691446689</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="5">
-        <v>13.400885797000669</v>
-      </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="7">
-        <v>119.32327425057498</v>
-      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="10">
-        <v>18</v>
-      </c>
-      <c r="D70" s="9" t="s">
+      <c r="A70" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="12">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="11" t="s">
         <v>90</v>
+      </c>
+      <c r="F70" s="3">
+        <v>15.271124725828278</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1.8360108109572364</v>
+      </c>
+      <c r="H70" s="3">
+        <v>17.107135536785513</v>
+      </c>
+      <c r="I70" s="3">
+        <f>AVERAGE(H70:H73)</f>
+        <v>13.649528785583124</v>
+      </c>
+      <c r="J70" s="3">
+        <f>_xlfn.STDEV.P(H70:H73)/SQRT(4)</f>
+        <v>3.3198200647628369</v>
+      </c>
+      <c r="K70" s="4">
+        <v>25.145946970164978</v>
+      </c>
+      <c r="L70" s="4">
+        <f>AVERAGE(K70:K73)</f>
+        <v>13.906401711019583</v>
+      </c>
+      <c r="M70" s="4">
+        <f>_xlfn.STDEV.P(K70:K73)/SQRT(4)</f>
+        <v>4.1843289295716701</v>
+      </c>
+      <c r="N70" s="5">
+        <v>2.6677377885256597</v>
+      </c>
+      <c r="O70" s="5">
+        <f>AVERAGE(N70:N73)</f>
+        <v>1.7841638851839381</v>
+      </c>
+      <c r="P70" s="5">
+        <f>_xlfn.STDEV.P(N70:N73)/SQRT(4)</f>
+        <v>0.41511239993420895</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>36.278997061391323</v>
+      </c>
+      <c r="R70" s="7">
+        <f>AVERAGE(Q70:Q73)</f>
+        <v>22.567324512293357</v>
+      </c>
+      <c r="S70" s="7">
+        <f>_xlfn.STDEV.P(Q70:Q73)/SQRT(4)</f>
+        <v>5.6885208685572008</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C71" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>89</v>
@@ -4045,66 +4053,17 @@
       <c r="E71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="3">
-        <v>15.271124725828278</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1.8360108109572364</v>
-      </c>
-      <c r="H71" s="3">
-        <v>17.107135536785513</v>
-      </c>
-      <c r="I71" s="3">
-        <f>AVERAGE(H71:H74)</f>
-        <v>13.649528785583124</v>
-      </c>
-      <c r="J71" s="3">
-        <f>_xlfn.STDEV.P(H71:H74)/SQRT(4)</f>
-        <v>3.3198200647628369</v>
-      </c>
-      <c r="K71" s="4">
-        <v>25.145946970164978</v>
-      </c>
-      <c r="L71" s="4">
-        <f>AVERAGE(K71:K74)</f>
-        <v>13.906401711019583</v>
-      </c>
-      <c r="M71" s="4">
-        <f>_xlfn.STDEV.P(K71:K74)/SQRT(4)</f>
-        <v>4.1843289295716701</v>
-      </c>
-      <c r="N71" s="5">
-        <v>2.6677377885256597</v>
-      </c>
-      <c r="O71" s="5">
-        <f>AVERAGE(N71:N74)</f>
-        <v>1.7841638851839381</v>
-      </c>
-      <c r="P71" s="5">
-        <f>_xlfn.STDEV.P(N71:N74)/SQRT(4)</f>
-        <v>0.41511239993420895</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>36.278997061391323</v>
-      </c>
-      <c r="R71" s="7">
-        <f>AVERAGE(Q71:Q74)</f>
-        <v>22.567324512293357</v>
-      </c>
-      <c r="S71" s="7">
-        <f>_xlfn.STDEV.P(Q71:Q74)/SQRT(4)</f>
-        <v>5.6885208685572008</v>
-      </c>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>89</v>
@@ -4112,17 +4071,40 @@
       <c r="E72" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="F72" s="3">
+        <v>4.0425218913801864</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.31771753951671949</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4.3602394308969057</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="4">
+        <v>5.0763147166503408</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="5">
+        <v>0.67276309294902703</v>
+      </c>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="7">
+        <v>8.4212108108010515</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>89</v>
@@ -4131,80 +4113,106 @@
         <v>90</v>
       </c>
       <c r="F73" s="3">
-        <v>4.0425218913801864</v>
+        <v>17.865519935100984</v>
       </c>
       <c r="G73" s="3">
-        <v>0.31771753951671949</v>
+        <v>1.6156914539659728</v>
       </c>
       <c r="H73" s="3">
-        <v>4.3602394308969057</v>
+        <v>19.481211389066956</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="4">
-        <v>5.0763147166503408</v>
+        <v>11.496943446243435</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="5">
-        <v>0.67276309294902703</v>
+        <v>2.0119907740771272</v>
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="7">
-        <v>8.4212108108010515</v>
+        <v>23.001765664687706</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="12">
-        <v>16</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="A74" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="18">
+        <v>4</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F74" s="3">
-        <v>17.865519935100984</v>
+        <v>71.919205537910898</v>
       </c>
       <c r="G74" s="3">
-        <v>1.6156914539659728</v>
+        <v>5.2305165115185694</v>
       </c>
       <c r="H74" s="3">
-        <v>19.481211389066956</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+        <v>77.149722049429471</v>
+      </c>
+      <c r="I74" s="3">
+        <f>AVERAGE(H74:H77)</f>
+        <v>43.226847076559416</v>
+      </c>
+      <c r="J74" s="3">
+        <f>_xlfn.STDEV.P(H74:H77)/SQRT(4)</f>
+        <v>17.658306338170377</v>
+      </c>
       <c r="K74" s="4">
-        <v>11.496943446243435</v>
-      </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+        <v>52.533430004902478</v>
+      </c>
+      <c r="L74" s="4">
+        <f>AVERAGE(K74:K77)</f>
+        <v>33.772206552461775</v>
+      </c>
+      <c r="M74" s="4">
+        <f>_xlfn.STDEV.P(K74:K77)/SQRT(4)</f>
+        <v>11.944562800095094</v>
+      </c>
       <c r="N74" s="5">
-        <v>2.0119907740771272</v>
-      </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
+        <v>7.2921170676044795</v>
+      </c>
+      <c r="O74" s="5">
+        <f>AVERAGE(N74:N77)</f>
+        <v>5.7344101304044939</v>
+      </c>
+      <c r="P74" s="5">
+        <f>_xlfn.STDEV.P(N74:N77)/SQRT(4)</f>
+        <v>2.1459454334011658</v>
+      </c>
       <c r="Q74" s="7">
-        <v>23.001765664687706</v>
+        <v>111.55666569888051</v>
+      </c>
+      <c r="R74" s="7">
+        <f>AVERAGE(Q74:Q77)</f>
+        <v>62.893658521420853</v>
+      </c>
+      <c r="S74" s="7">
+        <f>_xlfn.STDEV.P(Q74:Q77)/SQRT(4)</f>
+        <v>23.903158721296023</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C75" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>89</v>
@@ -4213,65 +4221,39 @@
         <v>90</v>
       </c>
       <c r="F75" s="3">
-        <v>71.919205537910898</v>
+        <v>72.058154512513852</v>
       </c>
       <c r="G75" s="3">
-        <v>5.2305165115185694</v>
+        <v>7.8070125919960907</v>
       </c>
       <c r="H75" s="3">
-        <v>77.149722049429471</v>
-      </c>
-      <c r="I75" s="3">
-        <f>AVERAGE(H75:H78)</f>
-        <v>43.226847076559416</v>
-      </c>
-      <c r="J75" s="3">
-        <f>_xlfn.STDEV.P(H75:H78)/SQRT(4)</f>
-        <v>17.658306338170377</v>
-      </c>
+        <v>79.865167104509936</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="4">
-        <v>52.533430004902478</v>
-      </c>
-      <c r="L75" s="4">
-        <f>AVERAGE(K75:K78)</f>
-        <v>33.772206552461775</v>
-      </c>
-      <c r="M75" s="4">
-        <f>_xlfn.STDEV.P(K75:K78)/SQRT(4)</f>
-        <v>11.944562800095094</v>
-      </c>
+        <v>61.976278328062705</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
       <c r="N75" s="5">
-        <v>7.2921170676044795</v>
-      </c>
-      <c r="O75" s="5">
-        <f>AVERAGE(N75:N78)</f>
-        <v>5.7344101304044939</v>
-      </c>
-      <c r="P75" s="5">
-        <f>_xlfn.STDEV.P(N75:N78)/SQRT(4)</f>
-        <v>2.1459454334011658</v>
-      </c>
+        <v>11.989204344798461</v>
+      </c>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
       <c r="Q75" s="7">
-        <v>111.55666569888051</v>
-      </c>
-      <c r="R75" s="7">
-        <f>AVERAGE(Q75:Q78)</f>
-        <v>62.893658521420853</v>
-      </c>
-      <c r="S75" s="7">
-        <f>_xlfn.STDEV.P(Q75:Q78)/SQRT(4)</f>
-        <v>23.903158721296023</v>
+        <v>109.54297334782981</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>89</v>
@@ -4280,39 +4262,39 @@
         <v>90</v>
       </c>
       <c r="F76" s="3">
-        <v>72.058154512513852</v>
+        <v>5.5091899488580509</v>
       </c>
       <c r="G76" s="3">
-        <v>7.8070125919960907</v>
+        <v>0.63657873940529153</v>
       </c>
       <c r="H76" s="3">
-        <v>79.865167104509936</v>
+        <v>6.1457686882633427</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="4">
-        <v>61.976278328062705</v>
+        <v>6.262237267501721</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="5">
-        <v>11.989204344798461</v>
+        <v>0.92959955056789123</v>
       </c>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="7">
-        <v>109.54297334782981</v>
+        <v>9.9787074744267379</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C77" s="18">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -4321,80 +4303,106 @@
         <v>90</v>
       </c>
       <c r="F77" s="3">
-        <v>5.5091899488580509</v>
+        <v>8.8754401910649534</v>
       </c>
       <c r="G77" s="3">
-        <v>0.63657873940529153</v>
+        <v>0.87129027296996509</v>
       </c>
       <c r="H77" s="3">
-        <v>6.1457686882633427</v>
+        <v>9.7467304640349184</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="4">
-        <v>6.262237267501721</v>
+        <v>14.316880609380213</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="5">
-        <v>0.92959955056789123</v>
+        <v>2.726719558647146</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="7">
-        <v>9.9787074744267379</v>
+        <v>20.496287564546385</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="18">
-        <v>20</v>
-      </c>
-      <c r="D78" s="17" t="s">
+      <c r="A78" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="20">
+        <v>5</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F78" s="3">
-        <v>8.8754401910649534</v>
+        <v>116.47873663726664</v>
       </c>
       <c r="G78" s="3">
-        <v>0.87129027296996509</v>
+        <v>11.906780917345685</v>
       </c>
       <c r="H78" s="3">
-        <v>9.7467304640349184</v>
-      </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+        <v>128.38551755461231</v>
+      </c>
+      <c r="I78" s="3">
+        <f>AVERAGE(H78:H81)</f>
+        <v>47.287626095720263</v>
+      </c>
+      <c r="J78" s="3">
+        <f>_xlfn.STDEV.P(H78:H81)/SQRT(4)</f>
+        <v>24.497947365430448</v>
+      </c>
       <c r="K78" s="4">
-        <v>14.316880609380213</v>
-      </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
+        <v>102.12156843458534</v>
+      </c>
+      <c r="L78" s="4">
+        <f>AVERAGE(K78:K81)</f>
+        <v>42.575438614930022</v>
+      </c>
+      <c r="M78" s="4">
+        <f>_xlfn.STDEV.P(K78:K81)/SQRT(4)</f>
+        <v>18.214019156420257</v>
+      </c>
       <c r="N78" s="5">
-        <v>2.726719558647146</v>
-      </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
+        <v>16.807550676360883</v>
+      </c>
+      <c r="O78" s="5">
+        <f>AVERAGE(N78:N81)</f>
+        <v>6.7303738248446541</v>
+      </c>
+      <c r="P78" s="5">
+        <f>_xlfn.STDEV.P(N78:N81)/SQRT(4)</f>
+        <v>3.0818546478170457</v>
+      </c>
       <c r="Q78" s="7">
-        <v>20.496287564546385</v>
+        <v>162.00477581230783</v>
+      </c>
+      <c r="R78" s="7">
+        <f>AVERAGE(Q78:Q81)</f>
+        <v>71.357657443241436</v>
+      </c>
+      <c r="S78" s="7">
+        <f>_xlfn.STDEV.P(Q78:Q81)/SQRT(4)</f>
+        <v>27.985313933717578</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>89</v>
@@ -4403,65 +4411,39 @@
         <v>90</v>
       </c>
       <c r="F79" s="3">
-        <v>116.47873663726664</v>
+        <v>38.890718565302848</v>
       </c>
       <c r="G79" s="3">
-        <v>11.906780917345685</v>
+        <v>3.9892614935106372</v>
       </c>
       <c r="H79" s="3">
-        <v>128.38551755461231</v>
-      </c>
-      <c r="I79" s="3">
-        <f>AVERAGE(H79:H82)</f>
-        <v>47.287626095720263</v>
-      </c>
-      <c r="J79" s="3">
-        <f>_xlfn.STDEV.P(H79:H82)/SQRT(4)</f>
-        <v>24.497947365430448</v>
-      </c>
+        <v>42.879980058813487</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="4">
-        <v>102.12156843458534</v>
-      </c>
-      <c r="L79" s="4">
-        <f>AVERAGE(K79:K82)</f>
-        <v>42.575438614930022</v>
-      </c>
-      <c r="M79" s="4">
-        <f>_xlfn.STDEV.P(K79:K82)/SQRT(4)</f>
-        <v>18.214019156420257</v>
-      </c>
+        <v>39.036237571364211</v>
+      </c>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
       <c r="N79" s="5">
-        <v>16.807550676360883</v>
-      </c>
-      <c r="O79" s="5">
-        <f>AVERAGE(N79:N82)</f>
-        <v>6.7303738248446541</v>
-      </c>
-      <c r="P79" s="5">
-        <f>_xlfn.STDEV.P(N79:N82)/SQRT(4)</f>
-        <v>3.0818546478170457</v>
-      </c>
+        <v>6.2048132714865343</v>
+      </c>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
       <c r="Q79" s="7">
-        <v>162.00477581230783</v>
-      </c>
-      <c r="R79" s="7">
-        <f>AVERAGE(Q79:Q82)</f>
-        <v>71.357657443241436</v>
-      </c>
-      <c r="S79" s="7">
-        <f>_xlfn.STDEV.P(Q79:Q82)/SQRT(4)</f>
-        <v>27.985313933717578</v>
+        <v>65.708159827324806</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C80" s="20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>89</v>
@@ -4470,39 +4452,39 @@
         <v>90</v>
       </c>
       <c r="F80" s="3">
-        <v>38.890718565302848</v>
+        <v>2.8353504923567781</v>
       </c>
       <c r="G80" s="3">
-        <v>3.9892614935106372</v>
+        <v>0.38882324975008936</v>
       </c>
       <c r="H80" s="3">
-        <v>42.879980058813487</v>
+        <v>3.2241737421068675</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="4">
-        <v>39.036237571364211</v>
+        <v>5.0495705047124195</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="5">
-        <v>6.2048132714865343</v>
+        <v>0.45076133697282117</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="7">
-        <v>65.708159827324806</v>
+        <v>10.559529091346912</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C81" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>89</v>
@@ -4511,80 +4493,106 @@
         <v>90</v>
       </c>
       <c r="F81" s="3">
-        <v>2.8353504923567781</v>
+        <v>13.151667267013488</v>
       </c>
       <c r="G81" s="3">
-        <v>0.38882324975008936</v>
+        <v>1.509165760334908</v>
       </c>
       <c r="H81" s="3">
-        <v>3.2241737421068675</v>
+        <v>14.660833027348396</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="4">
-        <v>5.0495705047124195</v>
+        <v>24.094377949058114</v>
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="5">
-        <v>0.45076133697282117</v>
+        <v>3.4583700145583753</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="7">
-        <v>10.559529091346912</v>
+        <v>47.158165041986209</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="20">
-        <v>17</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="19" t="s">
+      <c r="A82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F82" s="3">
-        <v>13.151667267013488</v>
+        <v>160.3619540171353</v>
       </c>
       <c r="G82" s="3">
-        <v>1.509165760334908</v>
+        <v>18.953839859888909</v>
       </c>
       <c r="H82" s="3">
-        <v>14.660833027348396</v>
-      </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+        <v>179.31579387702422</v>
+      </c>
+      <c r="I82" s="3">
+        <f>AVERAGE(H82:H85)</f>
+        <v>81.090908687646362</v>
+      </c>
+      <c r="J82" s="3">
+        <f>_xlfn.STDEV.P(H82:H85)/SQRT(4)</f>
+        <v>37.226157505285819</v>
+      </c>
       <c r="K82" s="4">
-        <v>24.094377949058114</v>
-      </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
+        <v>192.62137732703951</v>
+      </c>
+      <c r="L82" s="4">
+        <f>AVERAGE(K82:K85)</f>
+        <v>76.868423045533518</v>
+      </c>
+      <c r="M82" s="4">
+        <f>_xlfn.STDEV.P(K82:K85)/SQRT(4)</f>
+        <v>37.292433913747267</v>
+      </c>
       <c r="N82" s="5">
-        <v>3.4583700145583753</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
+        <v>43.40780086088909</v>
+      </c>
+      <c r="O82" s="5">
+        <f>AVERAGE(N82:N85)</f>
+        <v>16.717204816232496</v>
+      </c>
+      <c r="P82" s="5">
+        <f>_xlfn.STDEV.P(N82:N85)/SQRT(4)</f>
+        <v>8.3973169566770895</v>
+      </c>
       <c r="Q82" s="7">
-        <v>47.158165041986209</v>
+        <v>313.33947305167095</v>
+      </c>
+      <c r="R82" s="7">
+        <f>AVERAGE(Q82:Q85)</f>
+        <v>135.36170856061045</v>
+      </c>
+      <c r="S82" s="7">
+        <f>_xlfn.STDEV.P(Q82:Q85)/SQRT(4)</f>
+        <v>63.165978458705382</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>115</v>
@@ -4593,65 +4601,39 @@
         <v>90</v>
       </c>
       <c r="F83" s="3">
-        <v>160.3619540171353</v>
+        <v>2.3855049954101943</v>
       </c>
       <c r="G83" s="3">
-        <v>18.953839859888909</v>
+        <v>0.58233333563429157</v>
       </c>
       <c r="H83" s="3">
-        <v>179.31579387702422</v>
-      </c>
-      <c r="I83" s="3">
-        <f>AVERAGE(H83:H86)</f>
-        <v>81.090908687646362</v>
-      </c>
-      <c r="J83" s="3">
-        <f>_xlfn.STDEV.P(H83:H86)/SQRT(4)</f>
-        <v>37.226157505285819</v>
-      </c>
+        <v>2.967838331044486</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
       <c r="K83" s="4">
-        <v>192.62137732703951</v>
-      </c>
-      <c r="L83" s="4">
-        <f>AVERAGE(K83:K86)</f>
-        <v>76.868423045533518</v>
-      </c>
-      <c r="M83" s="4">
-        <f>_xlfn.STDEV.P(K83:K86)/SQRT(4)</f>
-        <v>37.292433913747267</v>
-      </c>
+        <v>9.1314877709841493</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
       <c r="N83" s="5">
-        <v>43.40780086088909</v>
-      </c>
-      <c r="O83" s="5">
-        <f>AVERAGE(N83:N86)</f>
-        <v>16.717204816232496</v>
-      </c>
-      <c r="P83" s="5">
-        <f>_xlfn.STDEV.P(N83:N86)/SQRT(4)</f>
-        <v>8.3973169566770895</v>
-      </c>
+        <v>1.0633785489690941</v>
+      </c>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
       <c r="Q83" s="7">
-        <v>313.33947305167095</v>
-      </c>
-      <c r="R83" s="7">
-        <f>AVERAGE(Q83:Q86)</f>
-        <v>135.36170856061045</v>
-      </c>
-      <c r="S83" s="7">
-        <f>_xlfn.STDEV.P(Q83:Q86)/SQRT(4)</f>
-        <v>63.165978458705382</v>
+        <v>7.1006641488004121</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>115</v>
@@ -4660,39 +4642,39 @@
         <v>90</v>
       </c>
       <c r="F84" s="3">
-        <v>2.3855049954101943</v>
+        <v>13.978778670743843</v>
       </c>
       <c r="G84" s="3">
-        <v>0.58233333563429157</v>
+        <v>1.2974118916913944</v>
       </c>
       <c r="H84" s="3">
-        <v>2.967838331044486</v>
+        <v>15.276190562435238</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="4">
-        <v>9.1314877709841493</v>
+        <v>13.41550151619176</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="5">
-        <v>1.0633785489690941</v>
+        <v>3.7858726206258151</v>
       </c>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="7">
-        <v>7.1006641488004121</v>
+        <v>25.426333235518317</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>115</v>
@@ -4701,80 +4683,106 @@
         <v>90</v>
       </c>
       <c r="F85" s="3">
-        <v>13.978778670743843</v>
+        <v>116.35460121751949</v>
       </c>
       <c r="G85" s="3">
-        <v>1.2974118916913944</v>
+        <v>10.449210762562057</v>
       </c>
       <c r="H85" s="3">
-        <v>15.276190562435238</v>
+        <v>126.80381198008155</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="4">
-        <v>13.41550151619176</v>
+        <v>92.305325567918629</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="5">
-        <v>3.7858726206258151</v>
+        <v>18.611767234445988</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="7">
-        <v>25.426333235518317</v>
+        <v>195.58036380645214</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="8">
-        <v>19</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="A86" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F86" s="3">
-        <v>116.35460121751949</v>
+        <v>274.76987865232735</v>
       </c>
       <c r="G86" s="3">
-        <v>10.449210762562057</v>
+        <v>22.532016304990297</v>
       </c>
       <c r="H86" s="3">
-        <v>126.80381198008155</v>
-      </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+        <v>297.30189495731764</v>
+      </c>
+      <c r="I86" s="3">
+        <f>AVERAGE(H86:H89)</f>
+        <v>222.95989419826813</v>
+      </c>
+      <c r="J86" s="3">
+        <f>_xlfn.STDEV.P(H86:H89)/SQRT(4)</f>
+        <v>62.41977712790576</v>
+      </c>
       <c r="K86" s="4">
-        <v>92.305325567918629</v>
-      </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+        <v>178.71765266807745</v>
+      </c>
+      <c r="L86" s="4">
+        <f>AVERAGE(K86:K89)</f>
+        <v>140.24289374255304</v>
+      </c>
+      <c r="M86" s="4">
+        <f>_xlfn.STDEV.P(K86:K89)/SQRT(4)</f>
+        <v>37.267272134585703</v>
+      </c>
       <c r="N86" s="5">
-        <v>18.611767234445988</v>
-      </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
+        <v>28.78216044388255</v>
+      </c>
+      <c r="O86" s="5">
+        <f>AVERAGE(N86:N89)</f>
+        <v>22.03902787649729</v>
+      </c>
+      <c r="P86" s="5">
+        <f>_xlfn.STDEV.P(N86:N89)/SQRT(4)</f>
+        <v>5.8107744150992531</v>
+      </c>
       <c r="Q86" s="7">
-        <v>195.58036380645214</v>
+        <v>403.41104636133548</v>
+      </c>
+      <c r="R86" s="7">
+        <f>AVERAGE(Q86:Q89)</f>
+        <v>309.04568818670435</v>
+      </c>
+      <c r="S86" s="7">
+        <f>_xlfn.STDEV.P(Q86:Q89)/SQRT(4)</f>
+        <v>85.765779847034779</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C87" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>115</v>
@@ -4783,65 +4791,39 @@
         <v>90</v>
       </c>
       <c r="F87" s="3">
-        <v>274.76987865232735</v>
+        <v>298.76815299715145</v>
       </c>
       <c r="G87" s="3">
-        <v>22.532016304990297</v>
+        <v>25.70138710123933</v>
       </c>
       <c r="H87" s="3">
-        <v>297.30189495731764</v>
-      </c>
-      <c r="I87" s="3">
-        <f>AVERAGE(H87:H90)</f>
-        <v>222.95989419826813</v>
-      </c>
-      <c r="J87" s="3">
-        <f>_xlfn.STDEV.P(H87:H90)/SQRT(4)</f>
-        <v>62.41977712790576</v>
-      </c>
+        <v>324.46954009839078</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="4">
-        <v>178.71765266807745</v>
-      </c>
-      <c r="L87" s="4">
-        <f>AVERAGE(K87:K90)</f>
-        <v>140.24289374255304</v>
-      </c>
-      <c r="M87" s="4">
-        <f>_xlfn.STDEV.P(K87:K90)/SQRT(4)</f>
-        <v>37.267272134585703</v>
-      </c>
+        <v>205.99296704981265</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
       <c r="N87" s="5">
-        <v>28.78216044388255</v>
-      </c>
-      <c r="O87" s="5">
-        <f>AVERAGE(N87:N90)</f>
-        <v>22.03902787649729</v>
-      </c>
-      <c r="P87" s="5">
-        <f>_xlfn.STDEV.P(N87:N90)/SQRT(4)</f>
-        <v>5.8107744150992531</v>
-      </c>
+        <v>31.647762752755984</v>
+      </c>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
       <c r="Q87" s="7">
-        <v>403.41104636133548</v>
-      </c>
-      <c r="R87" s="7">
-        <f>AVERAGE(Q87:Q90)</f>
-        <v>309.04568818670435</v>
-      </c>
-      <c r="S87" s="7">
-        <f>_xlfn.STDEV.P(Q87:Q90)/SQRT(4)</f>
-        <v>85.765779847034779</v>
+        <v>455.39853126276427</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C88" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>115</v>
@@ -4849,40 +4831,16 @@
       <c r="E88" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="3">
-        <v>298.76815299715145</v>
-      </c>
-      <c r="G88" s="3">
-        <v>25.70138710123933</v>
-      </c>
-      <c r="H88" s="3">
-        <v>324.46954009839078</v>
-      </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="4">
-        <v>205.99296704981265</v>
-      </c>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="5">
-        <v>31.647762752755984</v>
-      </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="7">
-        <v>455.39853126276427</v>
-      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C89" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>115</v>
@@ -4890,57 +4848,107 @@
       <c r="E89" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="F89" s="3">
+        <v>42.920154861877656</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4.1880926772183278</v>
+      </c>
+      <c r="H89" s="3">
+        <v>47.108247539095984</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="4">
+        <v>36.018061509768991</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="5">
+        <v>5.6871604328533394</v>
+      </c>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="7">
+        <v>68.327486936013273</v>
+      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="10">
-        <v>18</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="A90" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="18">
+        <v>3</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F90" s="3">
-        <v>42.920154861877656</v>
+        <v>51.524712949240396</v>
       </c>
       <c r="G90" s="3">
-        <v>4.1880926772183278</v>
+        <v>4.2228705652470175</v>
       </c>
       <c r="H90" s="3">
-        <v>47.108247539095984</v>
-      </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+        <v>55.747583514487417</v>
+      </c>
+      <c r="I90" s="3">
+        <f>AVERAGE(H90:H93)</f>
+        <v>92.903964904193188</v>
+      </c>
+      <c r="J90" s="3">
+        <f>_xlfn.STDEV.P(H90:H93)/SQRT(4)</f>
+        <v>18.990958309079435</v>
+      </c>
       <c r="K90" s="4">
-        <v>36.018061509768991</v>
-      </c>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
+        <v>39.447810222629727</v>
+      </c>
+      <c r="L90" s="4">
+        <f>AVERAGE(K90:K93)</f>
+        <v>61.759399272976687</v>
+      </c>
+      <c r="M90" s="4">
+        <f>_xlfn.STDEV.P(K90:K93)/SQRT(4)</f>
+        <v>12.04725692978595</v>
+      </c>
       <c r="N90" s="5">
-        <v>5.6871604328533394</v>
-      </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
+        <v>6.1137047796256496</v>
+      </c>
+      <c r="O90" s="5">
+        <f>AVERAGE(N90:N93)</f>
+        <v>9.2289946620900789</v>
+      </c>
+      <c r="P90" s="5">
+        <f>_xlfn.STDEV.P(N90:N93)/SQRT(4)</f>
+        <v>1.6352484417456377</v>
+      </c>
       <c r="Q90" s="7">
-        <v>68.327486936013273</v>
+        <v>100.0618499165206</v>
+      </c>
+      <c r="R90" s="7">
+        <f>AVERAGE(Q90:Q93)</f>
+        <v>143.04577397435278</v>
+      </c>
+      <c r="S90" s="7">
+        <f>_xlfn.STDEV.P(Q90:Q93)/SQRT(4)</f>
+        <v>28.305949232165379</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C91" s="18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>115</v>
@@ -4949,65 +4957,39 @@
         <v>90</v>
       </c>
       <c r="F91" s="3">
-        <v>51.524712949240396</v>
+        <v>131.6062626750778</v>
       </c>
       <c r="G91" s="3">
-        <v>4.2228705652470175</v>
+        <v>13.468920124567608</v>
       </c>
       <c r="H91" s="3">
-        <v>55.747583514487417</v>
-      </c>
-      <c r="I91" s="3">
-        <f>AVERAGE(H91:H94)</f>
-        <v>92.903964904193188</v>
-      </c>
-      <c r="J91" s="3">
-        <f>_xlfn.STDEV.P(H91:H94)/SQRT(4)</f>
-        <v>18.990958309079435</v>
-      </c>
+        <v>145.0751827996454</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="4">
-        <v>39.447810222629727</v>
-      </c>
-      <c r="L91" s="4">
-        <f>AVERAGE(K91:K94)</f>
-        <v>61.759399272976687</v>
-      </c>
-      <c r="M91" s="4">
-        <f>_xlfn.STDEV.P(K91:K94)/SQRT(4)</f>
-        <v>12.04725692978595</v>
-      </c>
+        <v>95.219075584287367</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
       <c r="N91" s="5">
-        <v>6.1137047796256496</v>
-      </c>
-      <c r="O91" s="5">
-        <f>AVERAGE(N91:N94)</f>
-        <v>9.2289946620900789</v>
-      </c>
-      <c r="P91" s="5">
-        <f>_xlfn.STDEV.P(N91:N94)/SQRT(4)</f>
-        <v>1.6352484417456377</v>
-      </c>
+        <v>13.747290124500081</v>
+      </c>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
       <c r="Q91" s="7">
-        <v>100.0618499165206</v>
-      </c>
-      <c r="R91" s="7">
-        <f>AVERAGE(Q91:Q94)</f>
-        <v>143.04577397435278</v>
-      </c>
-      <c r="S91" s="7">
-        <f>_xlfn.STDEV.P(Q91:Q94)/SQRT(4)</f>
-        <v>28.305949232165379</v>
+        <v>223.03258428964733</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C92" s="18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>115</v>
@@ -5015,40 +4997,16 @@
       <c r="E92" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="3">
-        <v>131.6062626750778</v>
-      </c>
-      <c r="G92" s="3">
-        <v>13.468920124567608</v>
-      </c>
-      <c r="H92" s="3">
-        <v>145.0751827996454</v>
-      </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="4">
-        <v>95.219075584287367</v>
-      </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="5">
-        <v>13.747290124500081</v>
-      </c>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="7">
-        <v>223.03258428964733</v>
-      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C93" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>115</v>
@@ -5056,57 +5014,107 @@
       <c r="E93" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="F93" s="3">
+        <v>71.845393724786078</v>
+      </c>
+      <c r="G93" s="3">
+        <v>6.0437346736606541</v>
+      </c>
+      <c r="H93" s="3">
+        <v>77.889128398446729</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="4">
+        <v>50.611312012012966</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="5">
+        <v>7.8259890821445062</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="7">
+        <v>106.04288771689043</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="18">
-        <v>16</v>
-      </c>
-      <c r="D94" s="17" t="s">
+      <c r="A94" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="12">
+        <v>4</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F94" s="3">
-        <v>71.845393724786078</v>
+        <v>77.034585117530256</v>
       </c>
       <c r="G94" s="3">
-        <v>6.0437346736606541</v>
+        <v>7.2926292511716673</v>
       </c>
       <c r="H94" s="3">
-        <v>77.889128398446729</v>
-      </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+        <v>84.327214368701917</v>
+      </c>
+      <c r="I94" s="3">
+        <f>AVERAGE(H94:H97)</f>
+        <v>46.77685874412073</v>
+      </c>
+      <c r="J94" s="3">
+        <f>_xlfn.STDEV.P(H94:H97)/SQRT(4)</f>
+        <v>13.352421324216605</v>
+      </c>
       <c r="K94" s="4">
-        <v>50.611312012012966</v>
-      </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
+        <v>72.31887995955141</v>
+      </c>
+      <c r="L94" s="4">
+        <f>AVERAGE(K94:K97)</f>
+        <v>40.473076455723955</v>
+      </c>
+      <c r="M94" s="4">
+        <f>_xlfn.STDEV.P(K94:K97)/SQRT(4)</f>
+        <v>11.431901632541951</v>
+      </c>
       <c r="N94" s="5">
-        <v>7.8259890821445062</v>
-      </c>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
+        <v>10.503012913467488</v>
+      </c>
+      <c r="O94" s="5">
+        <f>AVERAGE(N94:N97)</f>
+        <v>6.6269278812753853</v>
+      </c>
+      <c r="P94" s="5">
+        <f>_xlfn.STDEV.P(N94:N97)/SQRT(4)</f>
+        <v>1.7011339747120375</v>
+      </c>
       <c r="Q94" s="7">
-        <v>106.04288771689043</v>
+        <v>137.79357543251922</v>
+      </c>
+      <c r="R94" s="7">
+        <f>AVERAGE(Q94:Q97)</f>
+        <v>75.032158854389493</v>
+      </c>
+      <c r="S94" s="7">
+        <f>_xlfn.STDEV.P(Q94:Q97)/SQRT(4)</f>
+        <v>21.897068065302452</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C95" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>115</v>
@@ -5115,65 +5123,39 @@
         <v>90</v>
       </c>
       <c r="F95" s="3">
-        <v>77.034585117530256</v>
+        <v>44.964263056587704</v>
       </c>
       <c r="G95" s="3">
-        <v>7.2926292511716673</v>
+        <v>4.7581896561980077</v>
       </c>
       <c r="H95" s="3">
-        <v>84.327214368701917</v>
-      </c>
-      <c r="I95" s="3">
-        <f>AVERAGE(H95:H98)</f>
-        <v>46.77685874412073</v>
-      </c>
-      <c r="J95" s="3">
-        <f>_xlfn.STDEV.P(H95:H98)/SQRT(4)</f>
-        <v>13.352421324216605</v>
-      </c>
+        <v>49.72245271278571</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
       <c r="K95" s="4">
-        <v>72.31887995955141</v>
-      </c>
-      <c r="L95" s="4">
-        <f>AVERAGE(K95:K98)</f>
-        <v>40.473076455723955</v>
-      </c>
-      <c r="M95" s="4">
-        <f>_xlfn.STDEV.P(K95:K98)/SQRT(4)</f>
-        <v>11.431901632541951</v>
-      </c>
+        <v>45.868474772403381</v>
+      </c>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
       <c r="N95" s="5">
-        <v>10.503012913467488</v>
-      </c>
-      <c r="O95" s="5">
-        <f>AVERAGE(N95:N98)</f>
-        <v>6.6269278812753853</v>
-      </c>
-      <c r="P95" s="5">
-        <f>_xlfn.STDEV.P(N95:N98)/SQRT(4)</f>
-        <v>1.7011339747120375</v>
-      </c>
+        <v>7.5163024384035477</v>
+      </c>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
       <c r="Q95" s="7">
-        <v>137.79357543251922</v>
-      </c>
-      <c r="R95" s="7">
-        <f>AVERAGE(Q95:Q98)</f>
-        <v>75.032158854389493</v>
-      </c>
-      <c r="S95" s="7">
-        <f>_xlfn.STDEV.P(Q95:Q98)/SQRT(4)</f>
-        <v>21.897068065302452</v>
+        <v>78.678213259788293</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C96" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>115</v>
@@ -5182,39 +5164,39 @@
         <v>90</v>
       </c>
       <c r="F96" s="3">
-        <v>44.964263056587704</v>
+        <v>8.2033276187048418</v>
       </c>
       <c r="G96" s="3">
-        <v>4.7581896561980077</v>
+        <v>0.80517126709696718</v>
       </c>
       <c r="H96" s="3">
-        <v>49.72245271278571</v>
+        <v>9.0084988858018082</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="4">
-        <v>45.868474772403381</v>
+        <v>8.5428001425922382</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="5">
-        <v>7.5163024384035477</v>
+        <v>1.1513123814573367</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="7">
-        <v>78.678213259788293</v>
+        <v>14.310790716728388</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>115</v>
@@ -5223,80 +5205,106 @@
         <v>90</v>
       </c>
       <c r="F97" s="3">
-        <v>8.2033276187048418</v>
+        <v>39.810682914548757</v>
       </c>
       <c r="G97" s="3">
-        <v>0.80517126709696718</v>
+        <v>4.238586094644738</v>
       </c>
       <c r="H97" s="3">
-        <v>9.0084988858018082</v>
+        <v>44.049269009193495</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="4">
-        <v>8.5428001425922382</v>
+        <v>35.162150948348781</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="5">
-        <v>1.1513123814573367</v>
+        <v>7.3370837917731695</v>
       </c>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="7">
-        <v>14.310790716728388</v>
+        <v>69.346056008522083</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="12">
-        <v>20</v>
-      </c>
-      <c r="D98" s="11" t="s">
+      <c r="A98" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="20">
+        <v>5</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F98" s="3">
-        <v>39.810682914548757</v>
+        <v>39.414627929895474</v>
       </c>
       <c r="G98" s="3">
-        <v>4.238586094644738</v>
+        <v>4.250588029094982</v>
       </c>
       <c r="H98" s="3">
-        <v>44.049269009193495</v>
-      </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+        <v>43.665215958990458</v>
+      </c>
+      <c r="I98" s="3">
+        <f>AVERAGE(H98:H101)</f>
+        <v>27.314406135764958</v>
+      </c>
+      <c r="J98" s="3">
+        <f>_xlfn.STDEV.P(H98:H101)/SQRT(4)</f>
+        <v>8.1754049116127501</v>
+      </c>
       <c r="K98" s="4">
-        <v>35.162150948348781</v>
-      </c>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
+        <v>42.284411056563741</v>
+      </c>
+      <c r="L98" s="4">
+        <f>AVERAGE(K98:K101)</f>
+        <v>26.470850478533603</v>
+      </c>
+      <c r="M98" s="4">
+        <f>_xlfn.STDEV.P(K98:K101)/SQRT(4)</f>
+        <v>7.9067802890150691</v>
+      </c>
       <c r="N98" s="5">
-        <v>7.3370837917731695</v>
-      </c>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
+        <v>8.2022281209405818</v>
+      </c>
+      <c r="O98" s="5">
+        <f>AVERAGE(N98:N101)</f>
+        <v>4.6903827860805833</v>
+      </c>
+      <c r="P98" s="5">
+        <f>_xlfn.STDEV.P(N98:N101)/SQRT(4)</f>
+        <v>1.755922667429999</v>
+      </c>
       <c r="Q98" s="7">
-        <v>69.346056008522083</v>
+        <v>69.106433712982309</v>
+      </c>
+      <c r="R98" s="7">
+        <f>AVERAGE(Q98:Q101)</f>
+        <v>46.795471620062692</v>
+      </c>
+      <c r="S98" s="7">
+        <f>_xlfn.STDEV.P(Q98:Q101)/SQRT(4)</f>
+        <v>11.155481046459808</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C99" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>115</v>
@@ -5304,66 +5312,16 @@
       <c r="E99" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="3">
-        <v>39.414627929895474</v>
-      </c>
-      <c r="G99" s="3">
-        <v>4.250588029094982</v>
-      </c>
-      <c r="H99" s="3">
-        <v>43.665215958990458</v>
-      </c>
-      <c r="I99" s="3">
-        <f>AVERAGE(H99:H102)</f>
-        <v>27.314406135764958</v>
-      </c>
-      <c r="J99" s="3">
-        <f>_xlfn.STDEV.P(H99:H102)/SQRT(4)</f>
-        <v>8.1754049116127501</v>
-      </c>
-      <c r="K99" s="4">
-        <v>42.284411056563741</v>
-      </c>
-      <c r="L99" s="4">
-        <f>AVERAGE(K99:K102)</f>
-        <v>26.470850478533603</v>
-      </c>
-      <c r="M99" s="4">
-        <f>_xlfn.STDEV.P(K99:K102)/SQRT(4)</f>
-        <v>7.9067802890150691</v>
-      </c>
-      <c r="N99" s="5">
-        <v>8.2022281209405818</v>
-      </c>
-      <c r="O99" s="5">
-        <f>AVERAGE(N99:N102)</f>
-        <v>4.6903827860805833</v>
-      </c>
-      <c r="P99" s="5">
-        <f>_xlfn.STDEV.P(N99:N102)/SQRT(4)</f>
-        <v>1.755922667429999</v>
-      </c>
-      <c r="Q99" s="7">
-        <v>69.106433712982309</v>
-      </c>
-      <c r="R99" s="7">
-        <f>AVERAGE(Q99:Q102)</f>
-        <v>46.795471620062692</v>
-      </c>
-      <c r="S99" s="7">
-        <f>_xlfn.STDEV.P(Q99:Q102)/SQRT(4)</f>
-        <v>11.155481046459808</v>
-      </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C100" s="20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>115</v>
@@ -5371,16 +5329,40 @@
       <c r="E100" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="F100" s="3">
+        <v>9.9654226503192156</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.99817366222024506</v>
+      </c>
+      <c r="H100" s="3">
+        <v>10.96359631253946</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="4">
+        <v>10.657289900503464</v>
+      </c>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="5">
+        <v>1.1785374512205853</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="7">
+        <v>24.484509527143079</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C101" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>115</v>
@@ -5388,57 +5370,83 @@
       <c r="E101" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="3">
-        <v>9.9654226503192156</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0.99817366222024506</v>
-      </c>
-      <c r="H101" s="3">
-        <v>10.96359631253946</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="4">
-        <v>10.657289900503464</v>
-      </c>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="5">
-        <v>1.1785374512205853</v>
-      </c>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="7">
-        <v>24.484509527143079</v>
-      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C102" s="20">
-        <v>17</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E102" s="19" t="s">
+      <c r="A102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="F102" s="3">
+        <v>61.137786007415585</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6.591154397079543</v>
+      </c>
+      <c r="H102" s="3">
+        <v>67.728940404495134</v>
+      </c>
+      <c r="I102" s="3">
+        <f>AVERAGE(H102:H105)</f>
+        <v>81.484328667937092</v>
+      </c>
+      <c r="J102" s="3">
+        <f>_xlfn.STDEV.P(H102:H105)/SQRT(4)</f>
+        <v>42.540217100371201</v>
+      </c>
+      <c r="K102" s="4">
+        <v>66.809159705509074</v>
+      </c>
+      <c r="L102" s="4">
+        <f>AVERAGE(K102:K105)</f>
+        <v>74.115541700376411</v>
+      </c>
+      <c r="M102" s="4">
+        <f>_xlfn.STDEV.P(K102:K105)/SQRT(4)</f>
+        <v>39.134740262030469</v>
+      </c>
+      <c r="N102" s="5">
+        <v>12.738446708875227</v>
+      </c>
+      <c r="O102" s="5">
+        <f>AVERAGE(N102:N105)</f>
+        <v>11.992324656173027</v>
+      </c>
+      <c r="P102" s="5">
+        <f>_xlfn.STDEV.P(N102:N105)/SQRT(4)</f>
+        <v>5.7636818770718792</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>132.75860931527953</v>
+      </c>
+      <c r="R102" s="7">
+        <f>AVERAGE(Q102:Q105)</f>
+        <v>130.24408826411832</v>
+      </c>
+      <c r="S102" s="7">
+        <f>_xlfn.STDEV.P(Q102:Q105)/SQRT(4)</f>
+        <v>63.510754639523448</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>136</v>
@@ -5447,65 +5455,39 @@
         <v>90</v>
       </c>
       <c r="F103" s="3">
-        <v>61.137786007415585</v>
+        <v>3.1174600787108933</v>
       </c>
       <c r="G103" s="3">
-        <v>6.591154397079543</v>
+        <v>0.30890034666647892</v>
       </c>
       <c r="H103" s="3">
-        <v>67.728940404495134</v>
-      </c>
-      <c r="I103" s="3">
-        <f>AVERAGE(H103:H106)</f>
-        <v>81.484328667937092</v>
-      </c>
-      <c r="J103" s="3">
-        <f>_xlfn.STDEV.P(H103:H106)/SQRT(4)</f>
-        <v>42.540217100371201</v>
-      </c>
+        <v>3.4263604253773723</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
       <c r="K103" s="4">
-        <v>66.809159705509074</v>
-      </c>
-      <c r="L103" s="4">
-        <f>AVERAGE(K103:K106)</f>
-        <v>74.115541700376411</v>
-      </c>
-      <c r="M103" s="4">
-        <f>_xlfn.STDEV.P(K103:K106)/SQRT(4)</f>
-        <v>39.134740262030469</v>
-      </c>
+        <v>2.9287519525075405</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
       <c r="N103" s="5">
-        <v>12.738446708875227</v>
-      </c>
-      <c r="O103" s="5">
-        <f>AVERAGE(N103:N106)</f>
-        <v>11.992324656173027</v>
-      </c>
-      <c r="P103" s="5">
-        <f>_xlfn.STDEV.P(N103:N106)/SQRT(4)</f>
-        <v>5.7636818770718792</v>
-      </c>
+        <v>0.56611140642348201</v>
+      </c>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
       <c r="Q103" s="7">
-        <v>132.75860931527953</v>
-      </c>
-      <c r="R103" s="7">
-        <f>AVERAGE(Q103:Q106)</f>
-        <v>130.24408826411832</v>
-      </c>
-      <c r="S103" s="7">
-        <f>_xlfn.STDEV.P(Q103:Q106)/SQRT(4)</f>
-        <v>63.510754639523448</v>
+        <v>5.5263100298546322</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C104" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>136</v>
@@ -5514,39 +5496,39 @@
         <v>90</v>
       </c>
       <c r="F104" s="3">
-        <v>3.1174600787108933</v>
+        <v>28.894372774140653</v>
       </c>
       <c r="G104" s="3">
-        <v>0.30890034666647892</v>
+        <v>2.4299442739182187</v>
       </c>
       <c r="H104" s="3">
-        <v>3.4263604253773723</v>
+        <v>31.324317048058873</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="4">
-        <v>2.9287519525075405</v>
+        <v>23.076704970845437</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="5">
-        <v>0.56611140642348201</v>
+        <v>4.2294461698505135</v>
       </c>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="7">
-        <v>5.5263100298546322</v>
+        <v>47.279429645197325</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>136</v>
@@ -5555,80 +5537,106 @@
         <v>90</v>
       </c>
       <c r="F105" s="3">
-        <v>28.894372774140653</v>
+        <v>205.54348650394508</v>
       </c>
       <c r="G105" s="3">
-        <v>2.4299442739182187</v>
+        <v>17.914210289871932</v>
       </c>
       <c r="H105" s="3">
-        <v>31.324317048058873</v>
+        <v>223.45769679381701</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="4">
-        <v>23.076704970845437</v>
+        <v>203.64755017264358</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="5">
-        <v>4.2294461698505135</v>
+        <v>30.435294339542885</v>
       </c>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="7">
-        <v>47.279429645197325</v>
+        <v>335.41200406614178</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="8">
-        <v>19</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="A106" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="10">
+        <v>2</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F106" s="3">
-        <v>205.54348650394508</v>
+        <v>95.176208673184263</v>
       </c>
       <c r="G106" s="3">
-        <v>17.914210289871932</v>
+        <v>8.497947048185555</v>
       </c>
       <c r="H106" s="3">
-        <v>223.45769679381701</v>
-      </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+        <v>103.67415572136981</v>
+      </c>
+      <c r="I106" s="3">
+        <f>AVERAGE(H106:H109)</f>
+        <v>56.711418895413559</v>
+      </c>
+      <c r="J106" s="3">
+        <f>_xlfn.STDEV.P(H106:H109)/SQRT(4)</f>
+        <v>15.247298989092485</v>
+      </c>
       <c r="K106" s="4">
-        <v>203.64755017264358</v>
-      </c>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
+        <v>71.090037516927609</v>
+      </c>
+      <c r="L106" s="4">
+        <f>AVERAGE(K106:K109)</f>
+        <v>41.392653454237873</v>
+      </c>
+      <c r="M106" s="4">
+        <f>_xlfn.STDEV.P(K106:K109)/SQRT(4)</f>
+        <v>9.38186387560547</v>
+      </c>
       <c r="N106" s="5">
-        <v>30.435294339542885</v>
-      </c>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
+        <v>11.402851676519189</v>
+      </c>
+      <c r="O106" s="5">
+        <f>AVERAGE(N106:N109)</f>
+        <v>6.263947031374796</v>
+      </c>
+      <c r="P106" s="5">
+        <f>_xlfn.STDEV.P(N106:N109)/SQRT(4)</f>
+        <v>1.5974835864645991</v>
+      </c>
       <c r="Q106" s="7">
-        <v>335.41200406614178</v>
+        <v>136.53893026257398</v>
+      </c>
+      <c r="R106" s="7">
+        <f>AVERAGE(Q106:Q109)</f>
+        <v>89.754870004707257</v>
+      </c>
+      <c r="S106" s="7">
+        <f>_xlfn.STDEV.P(Q106:Q109)/SQRT(4)</f>
+        <v>18.686180074570554</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C107" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>136</v>
@@ -5637,65 +5645,39 @@
         <v>90</v>
       </c>
       <c r="F107" s="3">
-        <v>95.176208673184263</v>
+        <v>38.244815580226543</v>
       </c>
       <c r="G107" s="3">
-        <v>8.497947048185555</v>
+        <v>3.8906758641148436</v>
       </c>
       <c r="H107" s="3">
-        <v>103.67415572136981</v>
-      </c>
-      <c r="I107" s="3">
-        <f>AVERAGE(H107:H110)</f>
-        <v>56.711418895413559</v>
-      </c>
-      <c r="J107" s="3">
-        <f>_xlfn.STDEV.P(H107:H110)/SQRT(4)</f>
-        <v>15.247298989092485</v>
-      </c>
+        <v>42.135491444341383</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
       <c r="K107" s="4">
-        <v>71.090037516927609</v>
-      </c>
-      <c r="L107" s="4">
-        <f>AVERAGE(K107:K110)</f>
-        <v>41.392653454237873</v>
-      </c>
-      <c r="M107" s="4">
-        <f>_xlfn.STDEV.P(K107:K110)/SQRT(4)</f>
-        <v>9.38186387560547</v>
-      </c>
+        <v>31.240343979961022</v>
+      </c>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
       <c r="N107" s="5">
-        <v>11.402851676519189</v>
-      </c>
-      <c r="O107" s="5">
-        <f>AVERAGE(N107:N110)</f>
-        <v>6.263947031374796</v>
-      </c>
-      <c r="P107" s="5">
-        <f>_xlfn.STDEV.P(N107:N110)/SQRT(4)</f>
-        <v>1.5974835864645991</v>
-      </c>
+        <v>5.6703719361607012</v>
+      </c>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
       <c r="Q107" s="7">
-        <v>136.53893026257398</v>
-      </c>
-      <c r="R107" s="7">
-        <f>AVERAGE(Q107:Q110)</f>
-        <v>89.754870004707257</v>
-      </c>
-      <c r="S107" s="7">
-        <f>_xlfn.STDEV.P(Q107:Q110)/SQRT(4)</f>
-        <v>18.686180074570554</v>
+        <v>70.709958597485681</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C108" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>136</v>
@@ -5704,39 +5686,39 @@
         <v>90</v>
       </c>
       <c r="F108" s="3">
-        <v>38.244815580226543</v>
+        <v>18.857588948974996</v>
       </c>
       <c r="G108" s="3">
-        <v>3.8906758641148436</v>
+        <v>1.9465595622463383</v>
       </c>
       <c r="H108" s="3">
-        <v>42.135491444341383</v>
+        <v>20.804148511221335</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="4">
-        <v>31.240343979961022</v>
+        <v>20.842803454060743</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="5">
-        <v>5.6703719361607012</v>
+        <v>2.6236971146175678</v>
       </c>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="7">
-        <v>70.709958597485681</v>
+        <v>39.480721153437294</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C109" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>136</v>
@@ -5745,80 +5727,106 @@
         <v>90</v>
       </c>
       <c r="F109" s="3">
-        <v>18.857588948974996</v>
+        <v>54.790360707667816</v>
       </c>
       <c r="G109" s="3">
-        <v>1.9465595622463383</v>
+        <v>5.4415191970538803</v>
       </c>
       <c r="H109" s="3">
-        <v>20.804148511221335</v>
+        <v>60.231879904721694</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="4">
-        <v>20.842803454060743</v>
+        <v>42.397428866002109</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="5">
-        <v>2.6236971146175678</v>
+        <v>5.3588673982017285</v>
       </c>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="7">
-        <v>39.480721153437294</v>
+        <v>112.28987000533208</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" s="10">
-        <v>18</v>
-      </c>
-      <c r="D110" s="9" t="s">
+      <c r="A110" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="14">
+        <v>3</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="13" t="s">
         <v>90</v>
       </c>
       <c r="F110" s="3">
-        <v>54.790360707667816</v>
+        <v>3.6303248041652258</v>
       </c>
       <c r="G110" s="3">
-        <v>5.4415191970538803</v>
+        <v>0.40503197758712062</v>
       </c>
       <c r="H110" s="3">
-        <v>60.231879904721694</v>
-      </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+        <v>4.0353567817523466</v>
+      </c>
+      <c r="I110" s="3">
+        <f>AVERAGE(H110:H113)</f>
+        <v>8.7619191923998304E+16</v>
+      </c>
+      <c r="J110" s="3">
+        <f>_xlfn.STDEV.P(H110:H113)/SQRT(4)</f>
+        <v>7.5880446065246864E+16</v>
+      </c>
       <c r="K110" s="4">
-        <v>42.397428866002109</v>
-      </c>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
+        <v>5.8672659894773567</v>
+      </c>
+      <c r="L110" s="4">
+        <f>AVERAGE(K110:K113)</f>
+        <v>6.6099449646563331</v>
+      </c>
+      <c r="M110" s="4">
+        <f>_xlfn.STDEV.P(K110:K113)/SQRT(4)</f>
+        <v>1.336646793444243</v>
+      </c>
       <c r="N110" s="5">
-        <v>5.3588673982017285</v>
-      </c>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
+        <v>0.61829193367322299</v>
+      </c>
+      <c r="O110" s="5">
+        <f>AVERAGE(N110:N113)</f>
+        <v>0.88540925281541849</v>
+      </c>
+      <c r="P110" s="5">
+        <f>_xlfn.STDEV.P(N110:N113)/SQRT(4)</f>
+        <v>0.26744244571002734</v>
+      </c>
       <c r="Q110" s="7">
-        <v>112.28987000533208</v>
+        <v>8.505717999355813</v>
+      </c>
+      <c r="R110" s="7">
+        <f>AVERAGE(Q110:Q113)</f>
+        <v>9.7919655110509904E+16</v>
+      </c>
+      <c r="S110" s="7">
+        <f>_xlfn.STDEV.P(Q110:Q113)/SQRT(4)</f>
+        <v>8.4800908855512304E+16</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C111" s="14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>136</v>
@@ -5827,65 +5835,39 @@
         <v>90</v>
       </c>
       <c r="F111" s="3">
-        <v>3.6303248041652258</v>
+        <v>3.5047676769599322E+17</v>
       </c>
       <c r="G111" s="3">
-        <v>0.40503197758712062</v>
+        <v>1.4225080775217693</v>
       </c>
       <c r="H111" s="3">
-        <v>4.0353567817523466</v>
-      </c>
-      <c r="I111" s="3">
-        <f>AVERAGE(H111:H114)</f>
-        <v>8.7619191923998304E+16</v>
-      </c>
-      <c r="J111" s="3">
-        <f>_xlfn.STDEV.P(H111:H114)/SQRT(4)</f>
-        <v>7.5880446065246864E+16</v>
-      </c>
+        <v>3.5047676769599322E+17</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="4">
-        <v>5.8672659894773567</v>
-      </c>
-      <c r="L111" s="4">
-        <f>AVERAGE(K111:K114)</f>
-        <v>6.6099449646563331</v>
-      </c>
-      <c r="M111" s="4">
-        <f>_xlfn.STDEV.P(K111:K114)/SQRT(4)</f>
-        <v>1.336646793444243</v>
-      </c>
+        <v>10.959275660278173</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
       <c r="N111" s="5">
-        <v>0.61829193367322299</v>
-      </c>
-      <c r="O111" s="5">
-        <f>AVERAGE(N111:N114)</f>
-        <v>0.88540925281541849</v>
-      </c>
-      <c r="P111" s="5">
-        <f>_xlfn.STDEV.P(N111:N114)/SQRT(4)</f>
-        <v>0.26744244571002734</v>
-      </c>
+        <v>1.8107406546546108</v>
+      </c>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
       <c r="Q111" s="7">
-        <v>8.505717999355813</v>
-      </c>
-      <c r="R111" s="7">
-        <f>AVERAGE(Q111:Q114)</f>
-        <v>9.7919655110509904E+16</v>
-      </c>
-      <c r="S111" s="7">
-        <f>_xlfn.STDEV.P(Q111:Q114)/SQRT(4)</f>
-        <v>8.4800908855512304E+16</v>
+        <v>3.9167862044203962E+17</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C112" s="14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>136</v>
@@ -5894,39 +5876,39 @@
         <v>90</v>
       </c>
       <c r="F112" s="3">
-        <v>3.5047676769599322E+17</v>
+        <v>4.259687190750852</v>
       </c>
       <c r="G112" s="3">
-        <v>1.4225080775217693</v>
+        <v>0.3876589389543893</v>
       </c>
       <c r="H112" s="3">
-        <v>3.5047676769599322E+17</v>
+        <v>4.647346129705241</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="4">
-        <v>10.959275660278173</v>
+        <v>5.9498112428041319</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="5">
-        <v>1.8107406546546108</v>
+        <v>0.54643728541415226</v>
       </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="7">
-        <v>3.9167862044203962E+17</v>
+        <v>10.127450905302092</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C113" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>136</v>
@@ -5935,80 +5917,106 @@
         <v>90</v>
       </c>
       <c r="F113" s="3">
-        <v>4.259687190750852</v>
+        <v>4.2800142210605054</v>
       </c>
       <c r="G113" s="3">
-        <v>0.3876589389543893</v>
+        <v>0.39092341833595307</v>
       </c>
       <c r="H113" s="3">
-        <v>4.647346129705241</v>
+        <v>4.6709376393964588</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="4">
-        <v>5.9498112428041319</v>
+        <v>3.6634269660656709</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="5">
-        <v>0.54643728541415226</v>
+        <v>0.5661671375196875</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="7">
-        <v>10.127450905302092</v>
+        <v>8.2887799300758456</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="14">
-        <v>16</v>
-      </c>
-      <c r="D114" s="13" t="s">
+      <c r="A114" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="12">
+        <v>4</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E114" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F114" s="3">
-        <v>4.2800142210605054</v>
+        <v>84.639112340328126</v>
       </c>
       <c r="G114" s="3">
-        <v>0.39092341833595307</v>
+        <v>7.0329989234710046</v>
       </c>
       <c r="H114" s="3">
-        <v>4.6709376393964588</v>
-      </c>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+        <v>91.672111263799124</v>
+      </c>
+      <c r="I114" s="3">
+        <f>AVERAGE(H114:H117)</f>
+        <v>51.003377959232417</v>
+      </c>
+      <c r="J114" s="3">
+        <f>_xlfn.STDEV.P(H114:H117)/SQRT(4)</f>
+        <v>16.17710681890793</v>
+      </c>
       <c r="K114" s="4">
-        <v>3.6634269660656709</v>
-      </c>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
+        <v>81.641729380067304</v>
+      </c>
+      <c r="L114" s="4">
+        <f>AVERAGE(K114:K117)</f>
+        <v>55.718501157073291</v>
+      </c>
+      <c r="M114" s="4">
+        <f>_xlfn.STDEV.P(K114:K117)/SQRT(4)</f>
+        <v>19.498023969102523</v>
+      </c>
       <c r="N114" s="5">
-        <v>0.5661671375196875</v>
-      </c>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
+        <v>16.293223478270541</v>
+      </c>
+      <c r="O114" s="5">
+        <f>AVERAGE(N114:N117)</f>
+        <v>11.731907910702667</v>
+      </c>
+      <c r="P114" s="5">
+        <f>_xlfn.STDEV.P(N114:N117)/SQRT(4)</f>
+        <v>4.8582090949358365</v>
+      </c>
       <c r="Q114" s="7">
-        <v>8.2887799300758456</v>
+        <v>129.57006456385244</v>
+      </c>
+      <c r="R114" s="7">
+        <f>AVERAGE(Q114:Q117)</f>
+        <v>73.791387659074672</v>
+      </c>
+      <c r="S114" s="7">
+        <f>_xlfn.STDEV.P(Q114:Q117)/SQRT(4)</f>
+        <v>20.989031507654001</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C115" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>136</v>
@@ -6017,65 +6025,39 @@
         <v>90</v>
       </c>
       <c r="F115" s="3">
-        <v>84.639112340328126</v>
+        <v>32.956903343582859</v>
       </c>
       <c r="G115" s="3">
-        <v>7.0329989234710046</v>
+        <v>3.5318627737061479</v>
       </c>
       <c r="H115" s="3">
-        <v>91.672111263799124</v>
-      </c>
-      <c r="I115" s="3">
-        <f>AVERAGE(H115:H118)</f>
-        <v>51.003377959232417</v>
-      </c>
-      <c r="J115" s="3">
-        <f>_xlfn.STDEV.P(H115:H118)/SQRT(4)</f>
-        <v>16.17710681890793</v>
-      </c>
+        <v>36.488766117289003</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
       <c r="K115" s="4">
-        <v>81.641729380067304</v>
-      </c>
-      <c r="L115" s="4">
-        <f>AVERAGE(K115:K118)</f>
-        <v>55.718501157073291</v>
-      </c>
-      <c r="M115" s="4">
-        <f>_xlfn.STDEV.P(K115:K118)/SQRT(4)</f>
-        <v>19.498023969102523</v>
-      </c>
+        <v>30.586557613222986</v>
+      </c>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
       <c r="N115" s="5">
-        <v>16.293223478270541</v>
-      </c>
-      <c r="O115" s="5">
-        <f>AVERAGE(N115:N118)</f>
-        <v>11.731907910702667</v>
-      </c>
-      <c r="P115" s="5">
-        <f>_xlfn.STDEV.P(N115:N118)/SQRT(4)</f>
-        <v>4.8582090949358365</v>
-      </c>
+        <v>4.1459791531098489</v>
+      </c>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
       <c r="Q115" s="7">
-        <v>129.57006456385244</v>
-      </c>
-      <c r="R115" s="7">
-        <f>AVERAGE(Q115:Q118)</f>
-        <v>73.791387659074672</v>
-      </c>
-      <c r="S115" s="7">
-        <f>_xlfn.STDEV.P(Q115:Q118)/SQRT(4)</f>
-        <v>20.989031507654001</v>
+        <v>72.718808881423456</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C116" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>136</v>
@@ -6084,39 +6066,39 @@
         <v>90</v>
       </c>
       <c r="F116" s="3">
-        <v>32.956903343582859</v>
+        <v>5.8702023030166188</v>
       </c>
       <c r="G116" s="3">
-        <v>3.5318627737061479</v>
+        <v>0.58754568332090573</v>
       </c>
       <c r="H116" s="3">
-        <v>36.488766117289003</v>
+        <v>6.4577479863375249</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="4">
-        <v>30.586557613222986</v>
+        <v>6.4412385207032372</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="5">
-        <v>4.1459791531098489</v>
+        <v>1.1052468299811493</v>
       </c>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="7">
-        <v>72.718808881423456</v>
+        <v>11.510976188371172</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C117" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>136</v>
@@ -6125,80 +6107,106 @@
         <v>90</v>
       </c>
       <c r="F117" s="3">
-        <v>5.8702023030166188</v>
+        <v>61.313224819125288</v>
       </c>
       <c r="G117" s="3">
-        <v>0.58754568332090573</v>
+        <v>8.0816616503787113</v>
       </c>
       <c r="H117" s="3">
-        <v>6.4577479863375249</v>
+        <v>69.394886469504002</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="4">
-        <v>6.4412385207032372</v>
+        <v>104.20447911429964</v>
       </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="5">
-        <v>1.1052468299811493</v>
+        <v>25.383182181449126</v>
       </c>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="7">
-        <v>11.510976188371172</v>
+        <v>81.365701002651605</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118" s="12">
-        <v>20</v>
-      </c>
-      <c r="D118" s="11" t="s">
+      <c r="A118" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" s="20">
+        <v>5</v>
+      </c>
+      <c r="D118" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F118" s="3">
-        <v>61.313224819125288</v>
+        <v>67.376839760852491</v>
       </c>
       <c r="G118" s="3">
-        <v>8.0816616503787113</v>
+        <v>7.8975860575743893</v>
       </c>
       <c r="H118" s="3">
-        <v>69.394886469504002</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+        <v>75.274425818426877</v>
+      </c>
+      <c r="I118" s="3">
+        <f>AVERAGE(H118:H121)</f>
+        <v>111.15348887465551</v>
+      </c>
+      <c r="J118" s="3">
+        <f>_xlfn.STDEV.P(H118:H121)/SQRT(4)</f>
+        <v>67.034126270748089</v>
+      </c>
       <c r="K118" s="4">
-        <v>104.20447911429964</v>
-      </c>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
+        <v>60.305600498405283</v>
+      </c>
+      <c r="L118" s="4">
+        <f>AVERAGE(K118:K121)</f>
+        <v>65.220788188455529</v>
+      </c>
+      <c r="M118" s="4">
+        <f>_xlfn.STDEV.P(K118:K121)/SQRT(4)</f>
+        <v>35.924852260345546</v>
+      </c>
       <c r="N118" s="5">
-        <v>25.383182181449126</v>
-      </c>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
+        <v>11.894457454524229</v>
+      </c>
+      <c r="O118" s="5">
+        <f>AVERAGE(N118:N121)</f>
+        <v>11.853217780794694</v>
+      </c>
+      <c r="P118" s="5">
+        <f>_xlfn.STDEV.P(N118:N121)/SQRT(4)</f>
+        <v>5.2761090803361537</v>
+      </c>
       <c r="Q118" s="7">
-        <v>81.365701002651605</v>
+        <v>126.33864597717873</v>
+      </c>
+      <c r="R118" s="7">
+        <f>AVERAGE(Q118:Q121)</f>
+        <v>158.69520266274318</v>
+      </c>
+      <c r="S118" s="7">
+        <f>_xlfn.STDEV.P(Q118:Q121)/SQRT(4)</f>
+        <v>92.148870813203374</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C119" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>136</v>
@@ -6207,65 +6215,39 @@
         <v>90</v>
       </c>
       <c r="F119" s="3">
-        <v>67.376839760852491</v>
+        <v>313.97448548640813</v>
       </c>
       <c r="G119" s="3">
-        <v>7.8975860575743893</v>
+        <v>25.333141200384361</v>
       </c>
       <c r="H119" s="3">
-        <v>75.274425818426877</v>
-      </c>
-      <c r="I119" s="3">
-        <f>AVERAGE(H119:H122)</f>
-        <v>111.15348887465551</v>
-      </c>
-      <c r="J119" s="3">
-        <f>_xlfn.STDEV.P(H119:H122)/SQRT(4)</f>
-        <v>67.034126270748089</v>
-      </c>
+        <v>339.3076266867925</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
       <c r="K119" s="4">
-        <v>60.305600498405283</v>
-      </c>
-      <c r="L119" s="4">
-        <f>AVERAGE(K119:K122)</f>
-        <v>65.220788188455529</v>
-      </c>
-      <c r="M119" s="4">
-        <f>_xlfn.STDEV.P(K119:K122)/SQRT(4)</f>
-        <v>35.924852260345546</v>
-      </c>
+        <v>183.9692087440485</v>
+      </c>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
       <c r="N119" s="5">
-        <v>11.894457454524229</v>
-      </c>
-      <c r="O119" s="5">
-        <f>AVERAGE(N119:N122)</f>
-        <v>11.853217780794694</v>
-      </c>
-      <c r="P119" s="5">
-        <f>_xlfn.STDEV.P(N119:N122)/SQRT(4)</f>
-        <v>5.2761090803361537</v>
-      </c>
+        <v>28.968768900120125</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
       <c r="Q119" s="7">
-        <v>126.33864597717873</v>
-      </c>
-      <c r="R119" s="7">
-        <f>AVERAGE(Q119:Q122)</f>
-        <v>158.69520266274318</v>
-      </c>
-      <c r="S119" s="7">
-        <f>_xlfn.STDEV.P(Q119:Q122)/SQRT(4)</f>
-        <v>92.148870813203374</v>
+        <v>468.7112107463326</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>136</v>
@@ -6274,39 +6256,39 @@
         <v>90</v>
       </c>
       <c r="F120" s="3">
-        <v>313.97448548640813</v>
+        <v>19.798248557795937</v>
       </c>
       <c r="G120" s="3">
-        <v>25.333141200384361</v>
+        <v>1.1639372655225726</v>
       </c>
       <c r="H120" s="3">
-        <v>339.3076266867925</v>
+        <v>20.96218582331851</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="4">
-        <v>183.9692087440485</v>
+        <v>13.056605450941875</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="5">
-        <v>28.968768900120125</v>
+        <v>1.6506754613519092</v>
       </c>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="7">
-        <v>468.7112107463326</v>
+        <v>28.764150191204571</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C121" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>136</v>
@@ -6315,68 +6297,27 @@
         <v>90</v>
       </c>
       <c r="F121" s="3">
-        <v>19.798248557795937</v>
+        <v>8.4012181238180066</v>
       </c>
       <c r="G121" s="3">
-        <v>1.1639372655225726</v>
+        <v>0.66849904626612233</v>
       </c>
       <c r="H121" s="3">
-        <v>20.96218582331851</v>
+        <v>9.0697171700841288</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="4">
-        <v>13.056605450941875</v>
+        <v>3.5517380604264459</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="5">
-        <v>1.6506754613519092</v>
+        <v>4.8989693071825151</v>
       </c>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="7">
-        <v>28.764150191204571</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" s="20">
-        <v>17</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F122" s="3">
-        <v>8.4012181238180066</v>
-      </c>
-      <c r="G122" s="3">
-        <v>0.66849904626612233</v>
-      </c>
-      <c r="H122" s="3">
-        <v>9.0697171700841288</v>
-      </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="4">
-        <v>3.5517380604264459</v>
-      </c>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="5">
-        <v>4.8989693071825151</v>
-      </c>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="7">
         <v>10.966803736256884</v>
       </c>
     </row>
